--- a/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -333,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -366,9 +366,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -680,7 +677,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +807,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -830,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>5000</v>
       </c>
@@ -844,13 +841,14 @@
       <c r="E2" s="17">
         <v>5000</v>
       </c>
-      <c r="F2" s="18">
-        <v>1698.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="17">
+        <v>1800</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>198.47</v>
+        <v>193.25</v>
       </c>
       <c r="B3" s="15">
         <v>0</v>
@@ -862,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <v>198.47</v>
+        <v>193.25</v>
       </c>
       <c r="F3" s="15">
         <v>101.79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>0</v>
       </c>
@@ -888,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>0</v>
       </c>
@@ -917,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1014,7 @@
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -1031,10 +1029,10 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15">
-        <v>848.21</v>
-      </c>
-      <c r="G3" s="18">
-        <v>4151.79</v>
+        <v>900</v>
+      </c>
+      <c r="G3" s="17">
+        <v>4100</v>
       </c>
       <c r="H3" s="15">
         <v>51.79</v>
@@ -1046,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <v>900</v>
+        <v>951.79</v>
       </c>
       <c r="L3" s="15">
         <v>0</v>
@@ -1058,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="15">
-        <v>900</v>
+        <v>951.79</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1074,10 +1072,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15">
-        <v>850</v>
-      </c>
-      <c r="G4" s="18">
-        <v>3301.79</v>
+        <v>900</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3200</v>
       </c>
       <c r="H4" s="15">
         <v>50</v>
@@ -1089,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="15">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="L4" s="15">
         <v>0</v>
@@ -1101,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="15">
-        <v>900</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1117,13 +1115,13 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15">
-        <v>850.51</v>
-      </c>
-      <c r="G5" s="18">
-        <v>2451.2800000000002</v>
+        <v>900</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2300</v>
       </c>
       <c r="H5" s="15">
-        <v>49.49</v>
+        <v>49.46</v>
       </c>
       <c r="I5" s="15">
         <v>0</v>
@@ -1132,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="15">
-        <v>900</v>
+        <v>949.46</v>
       </c>
       <c r="L5" s="15">
         <v>0</v>
@@ -1144,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="15">
-        <v>900</v>
+        <v>949.46</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1160,13 +1158,13 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15">
-        <v>875.49</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1575.79</v>
+        <v>900</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1400</v>
       </c>
       <c r="H6" s="15">
-        <v>24.51</v>
+        <v>23</v>
       </c>
       <c r="I6" s="15">
         <v>0</v>
@@ -1175,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="15">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="L6" s="15">
         <v>0</v>
@@ -1187,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="15">
-        <v>900</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1203,13 +1201,13 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15">
-        <v>884.24</v>
+        <v>900</v>
       </c>
       <c r="G7" s="15">
-        <v>691.55</v>
+        <v>500</v>
       </c>
       <c r="H7" s="15">
-        <v>15.76</v>
+        <v>14</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
@@ -1218,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="15">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="L7" s="15">
         <v>0</v>
@@ -1230,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="15">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1246,13 +1244,13 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
-        <v>691.55</v>
+        <v>500</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="15">
-        <v>6.92</v>
+        <v>5</v>
       </c>
       <c r="I8" s="15">
         <v>0</v>
@@ -1261,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>698.47</v>
+        <v>505</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
@@ -1273,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <v>698.47</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -1378,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,90 +1387,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>42036</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>42339</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1517,10 +1515,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -333,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -373,6 +373,9 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +796,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,14 +844,14 @@
       <c r="E2" s="17">
         <v>5000</v>
       </c>
-      <c r="F2" s="17">
-        <v>1800</v>
+      <c r="F2" s="23">
+        <v>1698.21</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>193.25</v>
+        <v>198.47</v>
       </c>
       <c r="B3" s="15">
         <v>0</v>
@@ -860,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <v>193.25</v>
+        <v>198.47</v>
       </c>
       <c r="F3" s="15">
         <v>101.79</v>
@@ -916,7 +919,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,6 +1018,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -1029,10 +1033,10 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15">
-        <v>900</v>
-      </c>
-      <c r="G3" s="17">
-        <v>4100</v>
+        <v>848.21</v>
+      </c>
+      <c r="G3" s="23">
+        <v>4151.79</v>
       </c>
       <c r="H3" s="15">
         <v>51.79</v>
@@ -1044,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="15">
-        <v>951.79</v>
+        <v>900</v>
       </c>
       <c r="L3" s="15">
         <v>0</v>
@@ -1055,8 +1059,11 @@
       <c r="N3" s="15">
         <v>0</v>
       </c>
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
       <c r="P3" s="15">
-        <v>951.79</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1072,10 +1079,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15">
-        <v>900</v>
-      </c>
-      <c r="G4" s="17">
-        <v>3200</v>
+        <v>850</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3301.79</v>
       </c>
       <c r="H4" s="15">
         <v>50</v>
@@ -1087,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="15">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="L4" s="15">
         <v>0</v>
@@ -1098,8 +1105,11 @@
       <c r="N4" s="15">
         <v>0</v>
       </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
       <c r="P4" s="15">
-        <v>950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1115,23 +1125,23 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15">
+        <v>850.51</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2451.2800000000002</v>
+      </c>
+      <c r="H5" s="15">
+        <v>49.49</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
         <v>900</v>
       </c>
-      <c r="G5" s="17">
-        <v>2300</v>
-      </c>
-      <c r="H5" s="15">
-        <v>49.46</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>949.46</v>
-      </c>
       <c r="L5" s="15">
         <v>0</v>
       </c>
@@ -1141,8 +1151,11 @@
       <c r="N5" s="15">
         <v>0</v>
       </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
       <c r="P5" s="15">
-        <v>949.46</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1158,23 +1171,23 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15">
+        <v>875.49</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1575.79</v>
+      </c>
+      <c r="H6" s="15">
+        <v>24.51</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
         <v>900</v>
       </c>
-      <c r="G6" s="17">
-        <v>1400</v>
-      </c>
-      <c r="H6" s="15">
-        <v>23</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>923</v>
-      </c>
       <c r="L6" s="15">
         <v>0</v>
       </c>
@@ -1184,8 +1197,11 @@
       <c r="N6" s="15">
         <v>0</v>
       </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
       <c r="P6" s="15">
-        <v>923</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1201,23 +1217,23 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15">
+        <v>884.24</v>
+      </c>
+      <c r="G7" s="15">
+        <v>691.55</v>
+      </c>
+      <c r="H7" s="15">
+        <v>15.76</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
         <v>900</v>
       </c>
-      <c r="G7" s="15">
-        <v>500</v>
-      </c>
-      <c r="H7" s="15">
-        <v>14</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>914</v>
-      </c>
       <c r="L7" s="15">
         <v>0</v>
       </c>
@@ -1227,8 +1243,11 @@
       <c r="N7" s="15">
         <v>0</v>
       </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
       <c r="P7" s="15">
-        <v>914</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1244,13 +1263,13 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
-        <v>500</v>
+        <v>691.55</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="15">
-        <v>5</v>
+        <v>6.92</v>
       </c>
       <c r="I8" s="15">
         <v>0</v>
@@ -1259,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>505</v>
+        <v>698.47</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
@@ -1270,8 +1289,11 @@
       <c r="N8" s="15">
         <v>0</v>
       </c>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
       <c r="P8" s="15">
-        <v>505</v>
+        <v>698.47</v>
       </c>
     </row>
   </sheetData>
